--- a/G2/Database/Database_Feature_Review.xlsx
+++ b/G2/Database/Database_Feature_Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Intern\Intern\G2\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0811A08E-CE50-4F2B-870B-B293416FF7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A312334-BC1D-4D25-AE1A-0D7353E618DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C70605D1-84F3-49AB-9A8D-B2CA6D0E6E35}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C70605D1-84F3-49AB-9A8D-B2CA6D0E6E35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -288,8 +288,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{35CD21FD-2FCB-4A04-A9F0-A44748756811}" name="Table7" displayName="Table7" ref="A15:B19" totalsRowShown="0">
-  <autoFilter ref="A15:B19" xr:uid="{35CD21FD-2FCB-4A04-A9F0-A44748756811}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{35CD21FD-2FCB-4A04-A9F0-A44748756811}" name="Table7" displayName="Table7" ref="A15:B18" totalsRowShown="0">
+  <autoFilter ref="A15:B18" xr:uid="{35CD21FD-2FCB-4A04-A9F0-A44748756811}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B275BCD1-13A8-4509-A691-C5D41E56F429}" name="feature_id"/>
     <tableColumn id="2" xr3:uid="{8812B09D-C2D5-4EE7-B0CA-CC6E2707B28E}" name="name"/>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D82D61D-7C1E-4EDF-AE08-C8902D4B8E4B}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
